--- a/Data/zcb elastic 0.9 hedge.xlsx
+++ b/Data/zcb elastic 0.9 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26400.13892575041</v>
+        <v>-31967.32525488324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-24193.7130780546</v>
+        <v>-29739.08568443398</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-23099.66531973875</v>
+        <v>-28617.20468090145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21907.11761218974</v>
+        <v>-27410.50910740567</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20824.66367363849</v>
+        <v>-26322.37594910583</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-20348.53330525354</v>
+        <v>-25820.53090798974</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-19353.07495804456</v>
+        <v>-24809.87240295505</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18547.41744104349</v>
+        <v>-23995.30817875594</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17842.29776394646</v>
+        <v>-23264.63466551318</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-17104.12884771209</v>
+        <v>-22531.77187413822</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16468.90915403039</v>
+        <v>-21886.26242273789</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15901.91437737919</v>
+        <v>-21319.71352759097</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14930.1169624484</v>
+        <v>-20331.89176289429</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14495.54141132462</v>
+        <v>-19901.82568658507</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13726.44219434567</v>
+        <v>-19124.93547574855</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13047.39731381194</v>
+        <v>-18435.28664766258</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12376.01911992638</v>
+        <v>-17757.80299262926</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-11946.46208693338</v>
+        <v>-17318.35901155301</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11340.57110471009</v>
+        <v>-16723.44912422791</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10867.87880872513</v>
+        <v>-16230.48164991042</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10389.27074482688</v>
+        <v>-15750.27839689674</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-9999.251597193695</v>
+        <v>-15379.57037461089</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9236.42490449473</v>
+        <v>-14600.75374167556</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9292.79669190327</v>
+        <v>-215658.7901940924</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8598.54202843778</v>
+        <v>-12985.21407601074</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8127.821946630818</v>
+        <v>-12510.83362466739</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7784.0147648581</v>
+        <v>-12151.07134704229</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7300.389081145399</v>
+        <v>-11671.63352764515</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6860.594473154182</v>
+        <v>-11229.87869495319</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6495.200373274743</v>
+        <v>-10865.70595340073</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6189.942761893057</v>
+        <v>-10563.82078073305</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5851.176519529516</v>
+        <v>-10220.06932101574</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5562.035698140661</v>
+        <v>-9932.28189657572</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5270.984679080972</v>
+        <v>-9645.344865237981</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4811.338805487615</v>
+        <v>-9190.845403534571</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34915.1222232451</v>
+        <v>-189021.8873559521</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4406.57574441469</v>
+        <v>-7958.08373555845</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4157.749008855968</v>
+        <v>-7705.160030109808</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3754.513859449125</v>
+        <v>-7314.121631759599</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3569.301095610261</v>
+        <v>-7125.868500885622</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3147.53266527701</v>
+        <v>-6719.062758688573</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2841.024688994324</v>
+        <v>-6395.953262432306</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2524.832135904564</v>
+        <v>-6088.932865036014</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2123.85326868685</v>
+        <v>-5673.527909573833</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-1958.48536217646</v>
+        <v>-5515.142979177678</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1713.712342937246</v>
+        <v>-5274.279840999699</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1390.366557918718</v>
+        <v>-4943.660510722239</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1159.33218138476</v>
+        <v>-4713.841154931821</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-986.2305860156198</v>
+        <v>-4543.162881479045</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-792.3993246032185</v>
+        <v>-4352.315664846667</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-561.4638039391783</v>
+        <v>-4126.544614731559</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-467.8274394253791</v>
+        <v>-4023.618788323859</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-252.6075023329423</v>
+        <v>-3815.066375260745</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-161.8669465762321</v>
+        <v>-3720.275404902752</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-106.6623579555923</v>
+        <v>-3666.149800150074</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>36.91419335164824</v>
+        <v>-3533.839519035456</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>116.8823372672593</v>
+        <v>-3458.642133740181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>228.303841018536</v>
+        <v>-3347.724532774331</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>271.1896721800906</v>
+        <v>-3294.074935806651</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292530.3624464885</v>
+        <v>-492791.4709798077</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-794.6942685126475</v>
+        <v>-2001.182822716426</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-744.1895316837007</v>
+        <v>-1971.701875412261</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-679.911680905841</v>
+        <v>-1892.345022885848</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-579.5575841872732</v>
+        <v>-1804.537526712264</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-511.006830935365</v>
+        <v>-1733.301798121127</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-413.1917779552346</v>
+        <v>-1637.236436941226</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-364.8798688778786</v>
+        <v>-1591.948394844346</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-291.763534873115</v>
+        <v>-1518.253456047635</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-185.1130166336537</v>
+        <v>-1419.56322851791</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-110.9419924937106</v>
+        <v>-1340.381602308328</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-62.01688046811544</v>
+        <v>-1293.218561954969</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2.420199974921737</v>
+        <v>-1233.544916580664</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>67.62957243058483</v>
+        <v>-1161.213961957159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>137.9236548272931</v>
+        <v>-1091.504406584478</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>182.9186420189338</v>
+        <v>-1051.18134716257</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>244.6700183377367</v>
+        <v>-989.5980098009716</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>303.4501379951229</v>
+        <v>-940.5757948667106</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>351.062913297735</v>
+        <v>-890.395567267708</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>364.862699951353</v>
+        <v>-890.873356198455</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>403.1839661282868</v>
+        <v>-846.1975548804173</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>445.4290810151929</v>
+        <v>-808.0557290581572</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>483.4435091399167</v>
+        <v>-777.6014466696456</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>503.4063627098085</v>
+        <v>-746.1508247206673</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114841.0854258882</v>
+        <v>-121312.1226713619</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>157.103072639645</v>
+        <v>-526.2656774906254</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>178.5757748335628</v>
+        <v>-511.6872689841849</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>208.1342252350785</v>
+        <v>-476.9573567642253</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>234.6228387840051</v>
+        <v>-442.0956473101465</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>274.9063462661788</v>
+        <v>-425.1667582269873</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>290.5376889137277</v>
+        <v>-401.4972239648931</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>316.7065066947143</v>
+        <v>-380.2465108851698</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>333.8973115703077</v>
+        <v>-356.5450956340446</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>359.9696828038529</v>
+        <v>-340.0453438893831</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>378.6992349852729</v>
+        <v>-323.3635483179596</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>385.8361763209161</v>
+        <v>-312.1332713153722</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54232.39986433684</v>
+        <v>-91363.7635663838</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>295.3970236329178</v>
+        <v>-230.0183596704994</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>319.052696518494</v>
+        <v>-217.7560417991511</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>344.4362608919762</v>
+        <v>-187.0589366557662</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>367.9844697668428</v>
+        <v>-163.2796990580856</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>357.5641760189321</v>
+        <v>-148.713752652664</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>386.6372530032242</v>
+        <v>-127.3856400295747</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>411.8197202094736</v>
+        <v>-110.8275065132456</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>414.3633290289239</v>
+        <v>-95.64787974462639</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>431.8457472557272</v>
+        <v>-72.50502737783385</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>450.1601450379985</v>
+        <v>-59.43571998057636</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>462.6409626106585</v>
+        <v>-43.45104905617621</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>478.1228528096858</v>
+        <v>-29.28727717328547</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>487.0763552206076</v>
+        <v>-14.92665525291911</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>505.7062556230451</v>
+        <v>-11.79353066909247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>493.4362666807363</v>
+        <v>-10.7799455028358</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>510.3262239250855</v>
+        <v>2.767795013027269</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>504.0378666572662</v>
+        <v>12.58963657127534</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>507.2221301862439</v>
+        <v>9.78848650959805</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>508.0855573699318</v>
+        <v>7.547662437666184</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>504.2922894257513</v>
+        <v>12.04256352761346</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>500.3328967734</v>
+        <v>13.64917497204571</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>508.8777461018746</v>
+        <v>12.77961761600868</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>498.1432227093483</v>
+        <v>12.80200480431729</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127855.4260844026</v>
+        <v>-83480.92042490804</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.9 hedge.xlsx
+++ b/Data/zcb elastic 0.9 hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31967.32525488324</v>
+        <v>-7609.444132974862</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29739.08568443398</v>
+        <v>-7575.867878920162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28617.20468090145</v>
+        <v>-7546.264450668384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27410.50910740567</v>
+        <v>-7512.465215666593</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26322.37594910583</v>
+        <v>-7465.378663199613</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25820.53090798974</v>
+        <v>-7432.146863559969</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24809.87240295505</v>
+        <v>-7398.762690149044</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23995.30817875594</v>
+        <v>-7348.820048003263</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23264.63466551318</v>
+        <v>-7316.119029263942</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22531.77187413822</v>
+        <v>-7290.055331904042</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21886.26242273789</v>
+        <v>-7259.598238461057</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21319.71352759097</v>
+        <v>-7222.141269380588</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20331.89176289429</v>
+        <v>-7189.854046722783</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19901.82568658507</v>
+        <v>-7153.427532907324</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19124.93547574855</v>
+        <v>-7131.787520500002</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18435.28664766258</v>
+        <v>-7093.236706549009</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17757.80299262926</v>
+        <v>-7057.587146552054</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17318.35901155301</v>
+        <v>-7032.026914085788</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16723.44912422791</v>
+        <v>-6987.033697491088</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16230.48164991042</v>
+        <v>-6955.634446325343</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15750.27839689674</v>
+        <v>-6926.194480340298</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15379.57037461089</v>
+        <v>-6899.301630238308</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14600.75374167556</v>
+        <v>-6864.299708505427</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215658.7901940924</v>
+        <v>-224426.6205552511</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-12985.21407601074</v>
+        <v>-5829.470745992286</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12510.83362466739</v>
+        <v>-5809.056647109405</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12151.07134704229</v>
+        <v>-5782.863219534737</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11671.63352764515</v>
+        <v>-5757.096461570803</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11229.87869495319</v>
+        <v>-5731.149518076732</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10865.70595340073</v>
+        <v>-5711.193176377814</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10563.82078073305</v>
+        <v>-5685.102567504058</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10220.06932101574</v>
+        <v>-5664.244964116241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9932.28189657572</v>
+        <v>-5643.497109472231</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9645.344865237981</v>
+        <v>-5616.384371085002</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9190.845403534571</v>
+        <v>-5595.580253658231</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-189021.8873559521</v>
+        <v>-223358.5078728649</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-7958.08373555845</v>
+        <v>-4732.774572794109</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7705.160030109808</v>
+        <v>-4695.385497484739</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7314.121631759599</v>
+        <v>-4672.734386019761</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7125.868500885622</v>
+        <v>-4644.710661657538</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6719.062758688573</v>
+        <v>-4628.175735034809</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6395.953262432306</v>
+        <v>-4611.966351397708</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6088.932865036014</v>
+        <v>-4592.415625651849</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5673.527909573833</v>
+        <v>-4576.520317997011</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5515.142979177678</v>
+        <v>-4553.502056414683</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5274.279840999699</v>
+        <v>-4539.16981697661</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4943.660510722239</v>
+        <v>-4514.534478758304</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4713.841154931821</v>
+        <v>-4491.020947694557</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4543.162881479045</v>
+        <v>-4473.285185524948</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4352.315664846667</v>
+        <v>-4452.232851302984</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4126.544614731559</v>
+        <v>-4425.154661796581</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4023.618788323859</v>
+        <v>-4412.594762334586</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3815.066375260745</v>
+        <v>-4398.940355769229</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3720.275404902752</v>
+        <v>-4388.217238163218</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3666.149800150074</v>
+        <v>-4373.743520588297</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3533.839519035456</v>
+        <v>-4348.126203900554</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3458.642133740181</v>
+        <v>-4328.347398141449</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3347.724532774331</v>
+        <v>-4309.694023464848</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3294.074935806651</v>
+        <v>-4289.155791220684</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492791.4709798077</v>
+        <v>-781163.9236440033</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2001.182822716426</v>
+        <v>-1900.058360719658</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1971.701875412261</v>
+        <v>-1879.886506868251</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1892.345022885848</v>
+        <v>-1866.993670060818</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1804.537526712264</v>
+        <v>-1854.896741180441</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1733.301798121127</v>
+        <v>-1839.836504376495</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1637.236436941226</v>
+        <v>-1821.022032522799</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1591.948394844346</v>
+        <v>-1796.776879010686</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1518.253456047635</v>
+        <v>-1769.3359112558</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1419.56322851791</v>
+        <v>-1755.814820746791</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1340.381602308328</v>
+        <v>-1735.373516299448</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1293.218561954969</v>
+        <v>-1718.320694607314</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1233.544916580664</v>
+        <v>-1705.018454475728</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1161.213961957159</v>
+        <v>-1684.609980238502</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1091.504406584478</v>
+        <v>-1663.609847184767</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1051.18134716257</v>
+        <v>-1644.482252577086</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-989.5980098009716</v>
+        <v>-1627.349130676465</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-940.5757948667106</v>
+        <v>-1612.63821592063</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-890.395567267708</v>
+        <v>-1594.42598757212</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-890.873356198455</v>
+        <v>-1576.646565555992</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-846.1975548804173</v>
+        <v>-1561.219589827743</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-808.0557290581572</v>
+        <v>-1545.186256802307</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-777.6014466696456</v>
+        <v>-1526.699102618957</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-746.1508247206673</v>
+        <v>-1516.45392409811</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121312.1226713619</v>
+        <v>-235217.2015175798</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-526.2656774906254</v>
+        <v>-936.9077337965673</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-511.6872689841849</v>
+        <v>-912.648243685887</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-476.9573567642253</v>
+        <v>-893.4791430064341</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-442.0956473101465</v>
+        <v>-871.8425324657212</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-425.1667582269873</v>
+        <v>-848.3222285638252</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-401.4972239648931</v>
+        <v>-838.0732241310254</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-380.2465108851698</v>
+        <v>-826.7331124774878</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-356.5450956340446</v>
+        <v>-808.285596256325</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-340.0453438893831</v>
+        <v>-788.1939427536627</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-323.3635483179596</v>
+        <v>-763.1926561812919</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-312.1332713153722</v>
+        <v>-741.9512761189658</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91363.7635663838</v>
+        <v>-144717.3558216023</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-230.0183596704994</v>
+        <v>-542.9955988638388</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-217.7560417991511</v>
+        <v>-528.4771226641868</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-187.0589366557662</v>
+        <v>-504.0234028180751</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-163.2796990580856</v>
+        <v>-487.1067553991237</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-148.713752652664</v>
+        <v>-467.7484785691141</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-127.3856400295747</v>
+        <v>-447.2420188584131</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-110.8275065132456</v>
+        <v>-427.9673177603131</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-95.64787974462639</v>
+        <v>-406.733859781914</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-72.50502737783385</v>
+        <v>-383.9972930039158</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-59.43571998057636</v>
+        <v>-363.9096586203353</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-43.45104905617621</v>
+        <v>-337.443829961648</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-29.28727717328547</v>
+        <v>-311.9550225561417</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-14.92665525291911</v>
+        <v>-281.8354843250836</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-11.79353066909247</v>
+        <v>-251.9258912595544</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-10.7799455028358</v>
+        <v>-222.6354167325647</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.767795013027269</v>
+        <v>-183.9277773528276</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>12.58963657127534</v>
+        <v>-147.1600507331927</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>9.78848650959805</v>
+        <v>-113.8353320074588</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7.547662437666184</v>
+        <v>-70.6704635136032</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>12.04256352761346</v>
+        <v>-28.25829246601429</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>13.64917497204571</v>
+        <v>11.77242767855648</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>12.77961761600868</v>
+        <v>46.57362714480586</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>12.80200480431729</v>
+        <v>63.46158121740201</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83480.92042490804</v>
+        <v>-67045.9971747485</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.9 hedge.xlsx
+++ b/Data/zcb elastic 0.9 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7609.444132974862</v>
+        <v>-27892.53143524741</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7575.867878920162</v>
+        <v>-28513.93299723154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7546.264450668384</v>
+        <v>-28950.41179131022</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7512.465215666593</v>
+        <v>-29301.21212466233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7465.378663199613</v>
+        <v>-29439.00378186036</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7432.146863559969</v>
+        <v>-29256.01019337203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7398.762690149044</v>
+        <v>-29058.46349091204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7348.820048003263</v>
+        <v>-28882.31615540052</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7316.119029263942</v>
+        <v>-28567.53332196992</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7290.055331904042</v>
+        <v>-28125.74601003682</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7259.598238461057</v>
+        <v>-27631.74292904653</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7222.141269380588</v>
+        <v>-27218.81596627516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7189.854046722783</v>
+        <v>-26684.0758330306</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7153.427532907324</v>
+        <v>-26198.90874139696</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7131.787520500002</v>
+        <v>-25224.32514389625</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7093.236706549009</v>
+        <v>-24295.10292472366</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7057.587146552054</v>
+        <v>-23956.13094097607</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7032.026914085788</v>
+        <v>-23249.62083187524</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6987.033697491088</v>
+        <v>-22678.52495771925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6955.634446325343</v>
+        <v>-22044.9109848948</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6926.194480340298</v>
+        <v>-21382.03369981378</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6899.301630238308</v>
+        <v>-20698.82044247894</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6864.299708505427</v>
+        <v>-20139.98133386949</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224426.6205552511</v>
+        <v>-126518.0458795015</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5829.470745992286</v>
+        <v>-15973.65432919327</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5809.056647109405</v>
+        <v>-15757.19641472277</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5782.863219534737</v>
+        <v>-15469.7211679682</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5757.096461570803</v>
+        <v>-14944.43887461621</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5731.149518076732</v>
+        <v>-14710.62147119949</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5711.193176377814</v>
+        <v>-14241.98406738374</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5685.102567504058</v>
+        <v>-13997.0831038601</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5664.244964116241</v>
+        <v>-13501.80928034451</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5643.497109472231</v>
+        <v>-13242.78292353205</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5616.384371085002</v>
+        <v>-12860.89362197777</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5595.580253658231</v>
+        <v>-12478.47879081218</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223358.5078728649</v>
+        <v>-118232.5292955378</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4732.774572794109</v>
+        <v>-10051.20194991976</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4695.385497484739</v>
+        <v>-9782.624339950593</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4672.734386019761</v>
+        <v>-9608.651193622456</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4644.710661657538</v>
+        <v>-9406.956770600933</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4628.175735034809</v>
+        <v>-9502.145732922896</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4611.966351397708</v>
+        <v>-9186.820276356877</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4592.415625651849</v>
+        <v>-8824.235528438207</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4576.520317997011</v>
+        <v>-8748.969591217583</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4553.502056414683</v>
+        <v>-8576.084863514019</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4539.16981697661</v>
+        <v>-8448.020947927225</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4514.534478758304</v>
+        <v>-8342.546385200621</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4491.020947694557</v>
+        <v>-8072.07848740747</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4473.285185524948</v>
+        <v>-7846.377665994371</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4452.232851302984</v>
+        <v>-7712.42853438088</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4425.154661796581</v>
+        <v>-7591.774624333814</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4412.594762334586</v>
+        <v>-7415.283720652035</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4398.940355769229</v>
+        <v>-7348.712524791054</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4388.217238163218</v>
+        <v>-7208.226332428635</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4373.743520588297</v>
+        <v>-7033.224251280449</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4348.126203900554</v>
+        <v>-6800.518528672143</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4328.347398141449</v>
+        <v>-6687.508183717682</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4309.694023464848</v>
+        <v>-6591.45150168193</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4289.155791220684</v>
+        <v>-6496.330576239364</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781163.9236440033</v>
+        <v>-375360.6658569874</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1900.058360719658</v>
+        <v>-2485.192921250858</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1879.886506868251</v>
+        <v>-2459.694322571161</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1866.993670060818</v>
+        <v>-2436.18664045026</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1854.896741180441</v>
+        <v>-2378.059747138232</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1839.836504376495</v>
+        <v>-2342.10582187561</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1821.022032522799</v>
+        <v>-2305.050450036942</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1796.776879010686</v>
+        <v>-2239.062843248985</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1769.3359112558</v>
+        <v>-2212.86561318001</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1755.814820746791</v>
+        <v>-2186.466568190917</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1735.373516299448</v>
+        <v>-2134.615264302363</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1718.320694607314</v>
+        <v>-2136.385344281791</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1705.018454475728</v>
+        <v>-2088.906291365067</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1684.609980238502</v>
+        <v>-2054.424988248677</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1663.609847184767</v>
+        <v>-2029.377872113776</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1644.482252577086</v>
+        <v>-2011.927157385609</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1627.349130676465</v>
+        <v>-1988.507690009554</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1612.63821592063</v>
+        <v>-1975.192225039469</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1594.42598757212</v>
+        <v>-1939.677428114576</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1576.646565555992</v>
+        <v>-1901.588932039286</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1561.219589827743</v>
+        <v>-1851.463357903658</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1545.186256802307</v>
+        <v>-1895.315327934992</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1526.699102618957</v>
+        <v>-1856.877241156326</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1516.45392409811</v>
+        <v>-1832.902494184244</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235217.2015175798</v>
+        <v>-120522.0565879129</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-936.9077337965673</v>
+        <v>-1021.316418062225</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-912.648243685887</v>
+        <v>-1013.030912419045</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-893.4791430064341</v>
+        <v>-995.514167030576</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-871.8425324657212</v>
+        <v>-983.1425671882414</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-848.3222285638252</v>
+        <v>-959.7512678397851</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-838.0732241310254</v>
+        <v>-967.7482104255906</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-826.7331124774878</v>
+        <v>-943.3367938518489</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-808.285596256325</v>
+        <v>-943.53113189102</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-788.1939427536627</v>
+        <v>-914.7898199664095</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-763.1926561812919</v>
+        <v>-900.6086198311328</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-741.9512761189658</v>
+        <v>-895.1186705043858</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144717.3558216023</v>
+        <v>-97392.04668999047</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-542.9955988638388</v>
+        <v>-577.7229139065226</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-528.4771226641868</v>
+        <v>-589.3615660054064</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-504.0234028180751</v>
+        <v>-579.2502325698852</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-487.1067553991237</v>
+        <v>-573.4611396601447</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-467.7484785691141</v>
+        <v>-562.9354877366327</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-447.2420188584131</v>
+        <v>-549.1993103227402</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-427.9673177603131</v>
+        <v>-566.667004367481</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-406.733859781914</v>
+        <v>-562.0809146918382</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-383.9972930039158</v>
+        <v>-576.2466216039011</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-363.9096586203353</v>
+        <v>-553.4209617740296</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-337.443829961648</v>
+        <v>-560.0910004777063</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-311.9550225561417</v>
+        <v>-554.8697588564423</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-281.8354843250836</v>
+        <v>-566.9110770299965</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-251.9258912595544</v>
+        <v>-553.6033930025495</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-222.6354167325647</v>
+        <v>-545.1931535326984</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-183.9277773528276</v>
+        <v>-521.4609059112531</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-147.1600507331927</v>
+        <v>-523.2076904101011</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-113.8353320074588</v>
+        <v>-522.2861251662861</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-70.6704635136032</v>
+        <v>-501.8114801344752</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-28.25829246601429</v>
+        <v>-509.8546646001022</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>11.77242767855648</v>
+        <v>-490.0085486933243</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>46.57362714480586</v>
+        <v>-462.8495968742758</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>63.46158121740201</v>
+        <v>-452.1558872913121</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67045.9971747485</v>
+        <v>-111048.1719112215</v>
       </c>
     </row>
   </sheetData>
